--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H2">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I2">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J2">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3719945</v>
+        <v>0.07485899999999999</v>
       </c>
       <c r="N2">
-        <v>0.743989</v>
+        <v>0.149718</v>
       </c>
       <c r="O2">
-        <v>0.3853427071519593</v>
+        <v>0.01223842790176495</v>
       </c>
       <c r="P2">
-        <v>0.294755804675435</v>
+        <v>0.008208635466088346</v>
       </c>
       <c r="Q2">
-        <v>0.1531733233071667</v>
+        <v>0.047123865265</v>
       </c>
       <c r="R2">
-        <v>0.919039939843</v>
+        <v>0.2827431915899999</v>
       </c>
       <c r="S2">
-        <v>0.1314733250656622</v>
+        <v>0.005018265595492531</v>
       </c>
       <c r="T2">
-        <v>0.106744551542061</v>
+        <v>0.003492371218573979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H3">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I3">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J3">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.04721999999999999</v>
+        <v>0.04722000000000001</v>
       </c>
       <c r="N3">
         <v>0.14166</v>
       </c>
       <c r="O3">
-        <v>0.04891438618505251</v>
+        <v>0.007719827482618536</v>
       </c>
       <c r="P3">
-        <v>0.05612328581514258</v>
+        <v>0.007766836987710732</v>
       </c>
       <c r="Q3">
-        <v>0.01944341738</v>
+        <v>0.0297250687</v>
       </c>
       <c r="R3">
-        <v>0.17499075642</v>
+        <v>0.2675256183</v>
       </c>
       <c r="S3">
-        <v>0.01668887687748224</v>
+        <v>0.003165451066927923</v>
       </c>
       <c r="T3">
-        <v>0.0203248074520569</v>
+        <v>0.003304407665231902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H4">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I4">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J4">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.194442</v>
+        <v>0.1721783333333333</v>
       </c>
       <c r="N4">
-        <v>0.583326</v>
+        <v>0.516535</v>
       </c>
       <c r="O4">
-        <v>0.2014191249172805</v>
+        <v>0.0281488146882279</v>
       </c>
       <c r="P4">
-        <v>0.2311038530382879</v>
+        <v>0.02832022549376791</v>
       </c>
       <c r="Q4">
-        <v>0.080063891618</v>
+        <v>0.1083865477972222</v>
       </c>
       <c r="R4">
-        <v>0.7205750245620001</v>
+        <v>0.9754789301749999</v>
       </c>
       <c r="S4">
-        <v>0.06872127483717499</v>
+        <v>0.01154218739838779</v>
       </c>
       <c r="T4">
-        <v>0.08369327002526152</v>
+        <v>0.0120488649820737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H5">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I5">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J5">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.04603166666666667</v>
+        <v>0.036207</v>
       </c>
       <c r="N5">
-        <v>0.138095</v>
+        <v>0.07241400000000001</v>
       </c>
       <c r="O5">
-        <v>0.04768341211509831</v>
+        <v>0.005919351835306424</v>
       </c>
       <c r="P5">
-        <v>0.05471089336892641</v>
+        <v>0.003970264955725574</v>
       </c>
       <c r="Q5">
-        <v>0.01895410647388889</v>
+        <v>0.022792366845</v>
       </c>
       <c r="R5">
-        <v>0.170586958265</v>
+        <v>0.13675420107</v>
       </c>
       <c r="S5">
-        <v>0.01626888643509749</v>
+        <v>0.002427180999158392</v>
       </c>
       <c r="T5">
-        <v>0.0198133155802047</v>
+        <v>0.001689152736623627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4117623333333333</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H6">
-        <v>1.235287</v>
+        <v>1.888505</v>
       </c>
       <c r="I6">
-        <v>0.3411854503160894</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J6">
-        <v>0.362145714686097</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,90 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.305672</v>
+        <v>5.634865333333334</v>
       </c>
       <c r="N6">
-        <v>0.9170160000000001</v>
+        <v>16.904596</v>
       </c>
       <c r="O6">
-        <v>0.3166403696306094</v>
+        <v>0.9212238090029886</v>
       </c>
       <c r="P6">
-        <v>0.3633061631022081</v>
+        <v>0.9268335555210143</v>
       </c>
       <c r="Q6">
-        <v>0.1258642159546667</v>
+        <v>3.547157118775556</v>
       </c>
       <c r="R6">
-        <v>1.132777943592</v>
+        <v>31.92441406898</v>
       </c>
       <c r="S6">
-        <v>0.1080330871006725</v>
+        <v>0.3777401626724939</v>
       </c>
       <c r="T6">
-        <v>0.1315697700865129</v>
+        <v>0.3943221558665012</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2095515</v>
+        <v>0.6295016666666666</v>
       </c>
       <c r="H7">
-        <v>0.4191029999999999</v>
+        <v>1.888505</v>
       </c>
       <c r="I7">
-        <v>0.1736339560569617</v>
+        <v>0.4100416847468479</v>
       </c>
       <c r="J7">
-        <v>0.1228672814188827</v>
+        <v>0.425450884376791</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3719945</v>
+        <v>0.1513873333333333</v>
       </c>
       <c r="N7">
-        <v>0.743989</v>
+        <v>0.454162</v>
       </c>
       <c r="O7">
-        <v>0.3853427071519593</v>
+        <v>0.0247497690890936</v>
       </c>
       <c r="P7">
-        <v>0.294755804675435</v>
+        <v>0.02490048157569308</v>
       </c>
       <c r="Q7">
-        <v>0.07795200546674999</v>
+        <v>0.09529857864555556</v>
       </c>
       <c r="R7">
-        <v>0.311808021867</v>
+        <v>0.85768720781</v>
       </c>
       <c r="S7">
-        <v>0.06690857868049396</v>
+        <v>0.0101484370143874</v>
       </c>
       <c r="T7">
-        <v>0.03621584440290588</v>
+        <v>0.01059393190778661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H8">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I8">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J8">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.04721999999999999</v>
+        <v>0.07485899999999999</v>
       </c>
       <c r="N8">
-        <v>0.14166</v>
+        <v>0.149718</v>
       </c>
       <c r="O8">
-        <v>0.04891438618505251</v>
+        <v>0.01223842790176495</v>
       </c>
       <c r="P8">
-        <v>0.05612328581514258</v>
+        <v>0.008208635466088346</v>
       </c>
       <c r="Q8">
-        <v>0.009895021829999996</v>
+        <v>0.0124871923605</v>
       </c>
       <c r="R8">
-        <v>0.05937013097999998</v>
+        <v>0.049948769442</v>
       </c>
       <c r="S8">
-        <v>0.008493198381408662</v>
+        <v>0.001329773087470742</v>
       </c>
       <c r="T8">
-        <v>0.006895715552401508</v>
+        <v>0.0006169543599669751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H9">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I9">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J9">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.194442</v>
+        <v>0.04722000000000001</v>
       </c>
       <c r="N9">
-        <v>0.583326</v>
+        <v>0.14166</v>
       </c>
       <c r="O9">
-        <v>0.2014191249172805</v>
+        <v>0.007719827482618536</v>
       </c>
       <c r="P9">
-        <v>0.2311038530382879</v>
+        <v>0.007766836987710732</v>
       </c>
       <c r="Q9">
-        <v>0.040745612763</v>
+        <v>0.00787674459</v>
       </c>
       <c r="R9">
-        <v>0.244473676578</v>
+        <v>0.04726046754</v>
       </c>
       <c r="S9">
-        <v>0.03497319948491875</v>
+        <v>0.0008388020837891029</v>
       </c>
       <c r="T9">
-        <v>0.02839510214824342</v>
+        <v>0.0005837491459471922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H10">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I10">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J10">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04603166666666667</v>
+        <v>0.1721783333333333</v>
       </c>
       <c r="N10">
-        <v>0.138095</v>
+        <v>0.516535</v>
       </c>
       <c r="O10">
-        <v>0.04768341211509831</v>
+        <v>0.0281488146882279</v>
       </c>
       <c r="P10">
-        <v>0.05471089336892641</v>
+        <v>0.02832022549376791</v>
       </c>
       <c r="Q10">
-        <v>0.009646004797499998</v>
+        <v>0.02872098169416666</v>
       </c>
       <c r="R10">
-        <v>0.05787602878499999</v>
+        <v>0.172325890165</v>
       </c>
       <c r="S10">
-        <v>0.008279459483838975</v>
+        <v>0.003058524878935509</v>
       </c>
       <c r="T10">
-        <v>0.006722178732238362</v>
+        <v>0.002128525096017456</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,170 +1101,170 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2095515</v>
+        <v>0.1668095</v>
       </c>
       <c r="H11">
-        <v>0.4191029999999999</v>
+        <v>0.333619</v>
       </c>
       <c r="I11">
-        <v>0.1736339560569617</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J11">
-        <v>0.1228672814188827</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.305672</v>
+        <v>0.036207</v>
       </c>
       <c r="N11">
-        <v>0.9170160000000001</v>
+        <v>0.07241400000000001</v>
       </c>
       <c r="O11">
-        <v>0.3166403696306094</v>
+        <v>0.005919351835306424</v>
       </c>
       <c r="P11">
-        <v>0.3633061631022081</v>
+        <v>0.003970264955725574</v>
       </c>
       <c r="Q11">
-        <v>0.064054026108</v>
+        <v>0.0060396715665</v>
       </c>
       <c r="R11">
-        <v>0.384324156648</v>
+        <v>0.024158686266</v>
       </c>
       <c r="S11">
-        <v>0.05497952002630133</v>
+        <v>0.0006431704160896241</v>
       </c>
       <c r="T11">
-        <v>0.04463844058309348</v>
+        <v>0.0002984018823564871</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.585544</v>
+        <v>0.1668095</v>
       </c>
       <c r="H12">
-        <v>1.756632</v>
+        <v>0.333619</v>
       </c>
       <c r="I12">
-        <v>0.4851805936269489</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J12">
-        <v>0.5149870038950203</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3719945</v>
+        <v>5.634865333333334</v>
       </c>
       <c r="N12">
-        <v>0.743989</v>
+        <v>16.904596</v>
       </c>
       <c r="O12">
-        <v>0.3853427071519593</v>
+        <v>0.9212238090029886</v>
       </c>
       <c r="P12">
-        <v>0.294755804675435</v>
+        <v>0.9268335555210143</v>
       </c>
       <c r="Q12">
-        <v>0.217819147508</v>
+        <v>0.9399490688206668</v>
       </c>
       <c r="R12">
-        <v>1.306914885048</v>
+        <v>5.639694412924</v>
       </c>
       <c r="S12">
-        <v>0.1869608034058031</v>
+        <v>0.1000960775830364</v>
       </c>
       <c r="T12">
-        <v>0.1517954087304681</v>
+        <v>0.06966005560908034</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.585544</v>
+        <v>0.1668095</v>
       </c>
       <c r="H13">
-        <v>1.756632</v>
+        <v>0.333619</v>
       </c>
       <c r="I13">
-        <v>0.4851805936269489</v>
+        <v>0.1086555477667986</v>
       </c>
       <c r="J13">
-        <v>0.5149870038950203</v>
+        <v>0.0751591860201062</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04721999999999999</v>
+        <v>0.1513873333333333</v>
       </c>
       <c r="N13">
-        <v>0.14166</v>
+        <v>0.454162</v>
       </c>
       <c r="O13">
-        <v>0.04891438618505251</v>
+        <v>0.0247497690890936</v>
       </c>
       <c r="P13">
-        <v>0.05612328581514258</v>
+        <v>0.02490048157569308</v>
       </c>
       <c r="Q13">
-        <v>0.02764938767999999</v>
+        <v>0.02525284537966667</v>
       </c>
       <c r="R13">
-        <v>0.24884448912</v>
+        <v>0.151517072278</v>
       </c>
       <c r="S13">
-        <v>0.02373231092616161</v>
+        <v>0.002689199717477245</v>
       </c>
       <c r="T13">
-        <v>0.02890276281068417</v>
+        <v>0.001871499926737743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H14">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I14">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J14">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.194442</v>
+        <v>0.07485899999999999</v>
       </c>
       <c r="N14">
-        <v>0.583326</v>
+        <v>0.149718</v>
       </c>
       <c r="O14">
-        <v>0.2014191249172805</v>
+        <v>0.01223842790176495</v>
       </c>
       <c r="P14">
-        <v>0.2311038530382879</v>
+        <v>0.008208635466088346</v>
       </c>
       <c r="Q14">
-        <v>0.113854346448</v>
+        <v>0.038404713146</v>
       </c>
       <c r="R14">
-        <v>1.024689118032</v>
+        <v>0.230428278876</v>
       </c>
       <c r="S14">
-        <v>0.0977246505951867</v>
+        <v>0.004089754726220919</v>
       </c>
       <c r="T14">
-        <v>0.119015480864783</v>
+        <v>0.002846190865168627</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.585544</v>
+        <v>0.5130273333333334</v>
       </c>
       <c r="H15">
-        <v>1.756632</v>
+        <v>1.539082</v>
       </c>
       <c r="I15">
-        <v>0.4851805936269489</v>
+        <v>0.3341732090958447</v>
       </c>
       <c r="J15">
-        <v>0.5149870038950203</v>
+        <v>0.34673130228853</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.04603166666666667</v>
+        <v>0.04722000000000001</v>
       </c>
       <c r="N15">
-        <v>0.138095</v>
+        <v>0.14166</v>
       </c>
       <c r="O15">
-        <v>0.04768341211509831</v>
+        <v>0.007719827482618536</v>
       </c>
       <c r="P15">
-        <v>0.05471089336892641</v>
+        <v>0.007766836987710732</v>
       </c>
       <c r="Q15">
-        <v>0.02695356622666666</v>
+        <v>0.02422515068000001</v>
       </c>
       <c r="R15">
-        <v>0.24258209604</v>
+        <v>0.21802635612</v>
       </c>
       <c r="S15">
-        <v>0.02313506619616185</v>
+        <v>0.002579759523532933</v>
       </c>
       <c r="T15">
-        <v>0.02817539905648335</v>
+        <v>0.002693005503411666</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,619 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5130273333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.539082</v>
+      </c>
+      <c r="I16">
+        <v>0.3341732090958447</v>
+      </c>
+      <c r="J16">
+        <v>0.34673130228853</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1721783333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.516535</v>
+      </c>
+      <c r="O16">
+        <v>0.0281488146882279</v>
+      </c>
+      <c r="P16">
+        <v>0.02832022549376791</v>
+      </c>
+      <c r="Q16">
+        <v>0.08833219120777779</v>
+      </c>
+      <c r="R16">
+        <v>0.79498972087</v>
+      </c>
+      <c r="S16">
+        <v>0.009406579736609369</v>
+      </c>
+      <c r="T16">
+        <v>0.009819508666558974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5130273333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.539082</v>
+      </c>
+      <c r="I17">
+        <v>0.3341732090958447</v>
+      </c>
+      <c r="J17">
+        <v>0.34673130228853</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.036207</v>
+      </c>
+      <c r="N17">
+        <v>0.07241400000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.005919351835306424</v>
+      </c>
+      <c r="P17">
+        <v>0.003970264955725574</v>
+      </c>
+      <c r="Q17">
+        <v>0.01857518065800001</v>
+      </c>
+      <c r="R17">
+        <v>0.111451083948</v>
+      </c>
+      <c r="S17">
+        <v>0.001978088798571726</v>
+      </c>
+      <c r="T17">
+        <v>0.001376615138529241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5130273333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.539082</v>
+      </c>
+      <c r="I18">
+        <v>0.3341732090958447</v>
+      </c>
+      <c r="J18">
+        <v>0.34673130228853</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.634865333333334</v>
+      </c>
+      <c r="N18">
+        <v>16.904596</v>
+      </c>
+      <c r="O18">
+        <v>0.9212238090029886</v>
+      </c>
+      <c r="P18">
+        <v>0.9268335555210143</v>
+      </c>
+      <c r="Q18">
+        <v>2.890839935652445</v>
+      </c>
+      <c r="R18">
+        <v>26.017559420872</v>
+      </c>
+      <c r="S18">
+        <v>0.3078483165500263</v>
+      </c>
+      <c r="T18">
+        <v>0.3213622057105099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5130273333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.539082</v>
+      </c>
+      <c r="I19">
+        <v>0.3341732090958447</v>
+      </c>
+      <c r="J19">
+        <v>0.34673130228853</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1513873333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.454162</v>
+      </c>
+      <c r="O19">
+        <v>0.0247497690890936</v>
+      </c>
+      <c r="P19">
+        <v>0.02490048157569308</v>
+      </c>
+      <c r="Q19">
+        <v>0.07766583992044446</v>
+      </c>
+      <c r="R19">
+        <v>0.6989925592840001</v>
+      </c>
+      <c r="S19">
+        <v>0.00827070976088355</v>
+      </c>
+      <c r="T19">
+        <v>0.008633776404351607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J20">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.07485899999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.149718</v>
+      </c>
+      <c r="O20">
+        <v>0.01223842790176495</v>
+      </c>
+      <c r="P20">
+        <v>0.008208635466088346</v>
+      </c>
+      <c r="Q20">
+        <v>0.016908801578</v>
+      </c>
+      <c r="R20">
+        <v>0.101452809468</v>
+      </c>
+      <c r="S20">
+        <v>0.001800634492580757</v>
+      </c>
+      <c r="T20">
+        <v>0.001253119022378766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J21">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04722000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.14166</v>
+      </c>
+      <c r="O21">
+        <v>0.007719827482618536</v>
+      </c>
+      <c r="P21">
+        <v>0.007766836987710732</v>
+      </c>
+      <c r="Q21">
+        <v>0.01066583324</v>
+      </c>
+      <c r="R21">
+        <v>0.09599249916000001</v>
+      </c>
+      <c r="S21">
+        <v>0.001135814808368577</v>
+      </c>
+      <c r="T21">
+        <v>0.001185674673119972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J22">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1721783333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.516535</v>
+      </c>
+      <c r="O22">
+        <v>0.0281488146882279</v>
+      </c>
+      <c r="P22">
+        <v>0.02832022549376791</v>
+      </c>
+      <c r="Q22">
+        <v>0.03889083843444444</v>
+      </c>
+      <c r="R22">
+        <v>0.35001754591</v>
+      </c>
+      <c r="S22">
+        <v>0.004141522674295236</v>
+      </c>
+      <c r="T22">
+        <v>0.004323326749117781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J23">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.036207</v>
+      </c>
+      <c r="N23">
+        <v>0.07241400000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.005919351835306424</v>
+      </c>
+      <c r="P23">
+        <v>0.003970264955725574</v>
+      </c>
+      <c r="Q23">
+        <v>0.008178268194000001</v>
+      </c>
+      <c r="R23">
+        <v>0.04906960916400001</v>
+      </c>
+      <c r="S23">
+        <v>0.0008709116214866812</v>
+      </c>
+      <c r="T23">
+        <v>0.0006060951982162196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F24">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.585544</v>
-      </c>
-      <c r="H16">
-        <v>1.756632</v>
-      </c>
-      <c r="I16">
-        <v>0.4851805936269489</v>
-      </c>
-      <c r="J16">
-        <v>0.5149870038950203</v>
-      </c>
-      <c r="K16">
+      <c r="G24">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J24">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.305672</v>
-      </c>
-      <c r="N16">
-        <v>0.9170160000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.3166403696306094</v>
-      </c>
-      <c r="P16">
-        <v>0.3633061631022081</v>
-      </c>
-      <c r="Q16">
-        <v>0.178984405568</v>
-      </c>
-      <c r="R16">
-        <v>1.610859650112</v>
-      </c>
-      <c r="S16">
-        <v>0.1536277625036356</v>
-      </c>
-      <c r="T16">
-        <v>0.1870979524326017</v>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.634865333333334</v>
+      </c>
+      <c r="N24">
+        <v>16.904596</v>
+      </c>
+      <c r="O24">
+        <v>0.9212238090029886</v>
+      </c>
+      <c r="P24">
+        <v>0.9268335555210143</v>
+      </c>
+      <c r="Q24">
+        <v>1.272777085455111</v>
+      </c>
+      <c r="R24">
+        <v>11.454993769096</v>
+      </c>
+      <c r="S24">
+        <v>0.135539252197432</v>
+      </c>
+      <c r="T24">
+        <v>0.141489138334923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2258753333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.6776260000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.1471295583905087</v>
+      </c>
+      <c r="J25">
+        <v>0.1526586273145729</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1513873333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.454162</v>
+      </c>
+      <c r="O25">
+        <v>0.0247497690890936</v>
+      </c>
+      <c r="P25">
+        <v>0.02490048157569308</v>
+      </c>
+      <c r="Q25">
+        <v>0.03419466437911112</v>
+      </c>
+      <c r="R25">
+        <v>0.3077519794120001</v>
+      </c>
+      <c r="S25">
+        <v>0.003641422596345403</v>
+      </c>
+      <c r="T25">
+        <v>0.003801273336817117</v>
       </c>
     </row>
   </sheetData>
